--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$236</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="283">
   <si>
     <t>Mod Name</t>
   </si>
@@ -240,9 +240,6 @@
     <t>StatusEffectHUD</t>
   </si>
   <si>
-    <t>Damage Indicators</t>
-  </si>
-  <si>
     <t>Industrial Craft 2 Experimental</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Forestry</t>
   </si>
   <si>
-    <t>Gregtech</t>
-  </si>
-  <si>
     <t>Witchery</t>
   </si>
   <si>
@@ -726,9 +720,6 @@
     <t>1.5.6</t>
   </si>
   <si>
-    <t>Mystcraft addon</t>
-  </si>
-  <si>
     <t>Journey Map</t>
   </si>
   <si>
@@ -754,6 +745,129 @@
   </si>
   <si>
     <t>1.1.8a</t>
+  </si>
+  <si>
+    <t>1.0.0.2</t>
+  </si>
+  <si>
+    <t>Adds shortcut wheel, accessed by holding "R"</t>
+  </si>
+  <si>
+    <t>Progressive Automation</t>
+  </si>
+  <si>
+    <t>Airship Mod</t>
+  </si>
+  <si>
+    <t>Better Foliage</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>Nearby Mob Finder</t>
+  </si>
+  <si>
+    <t>Tabula Rasa</t>
+  </si>
+  <si>
+    <t>Ore Berries</t>
+  </si>
+  <si>
+    <t>Female Gender Option</t>
+  </si>
+  <si>
+    <t>Devine RPG</t>
+  </si>
+  <si>
+    <t>MineTweaker 3</t>
+  </si>
+  <si>
+    <t>GregTech</t>
+  </si>
+  <si>
+    <t>Fabricators</t>
+  </si>
+  <si>
+    <t>Ars Magica</t>
+  </si>
+  <si>
+    <t>Alchemical Bling</t>
+  </si>
+  <si>
+    <t>Too Much Rain</t>
+  </si>
+  <si>
+    <t>ZZZZZ Custom Configs</t>
+  </si>
+  <si>
+    <t>Lockdown</t>
+  </si>
+  <si>
+    <t>Description Tags</t>
+  </si>
+  <si>
+    <t>Automagy</t>
+  </si>
+  <si>
+    <t>Noggscraft Emerald Tool and Armor</t>
+  </si>
+  <si>
+    <t>NedoComputers</t>
+  </si>
+  <si>
+    <t>Cybernetica</t>
+  </si>
+  <si>
+    <t>RC Mod</t>
+  </si>
+  <si>
+    <t>AE2 Tech Add-On Mod</t>
+  </si>
+  <si>
+    <t>Will not be included</t>
+  </si>
+  <si>
+    <t>3.0.1</t>
+  </si>
+  <si>
+    <t>1.57-116</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>Damage Indicators Mod</t>
+  </si>
+  <si>
+    <t>3.2.0</t>
+  </si>
+  <si>
+    <t>Mystcraft addon, pending 1.7.10 version</t>
+  </si>
+  <si>
+    <t>Baubles Princess Edition</t>
+  </si>
+  <si>
+    <t>Santa's Décor</t>
+  </si>
+  <si>
+    <t>ItemSearch</t>
+  </si>
+  <si>
+    <t>Statues Mod</t>
+  </si>
+  <si>
+    <t>Archimedes Ships</t>
+  </si>
+  <si>
+    <t>Flaxbeard's Steam Power</t>
+  </si>
+  <si>
+    <t>3D Furnace</t>
   </si>
 </sst>
 </file>
@@ -1104,13 +1218,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B127" sqref="B127"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,126 +1242,129 @@
         <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>48</v>
+      <c r="C4" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>109</v>
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>229</v>
+      <c r="C14" s="2">
+        <v>1.27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,104 +1375,104 @@
         <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>183</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6.13</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,1021 +1480,1242 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>61</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>59</v>
-      </c>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>188</v>
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="C95" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>221</v>
-      </c>
-      <c r="D95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>57</v>
-      </c>
-      <c r="D109" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="D110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B115" t="s">
-        <v>63</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B119" t="s">
-        <v>240</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D119" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B122" t="s">
-        <v>144</v>
+        <v>19</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>212</v>
+        <v>57</v>
+      </c>
+      <c r="D125" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>64</v>
-      </c>
-      <c r="D128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>63</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B136" t="s">
-        <v>24</v>
+        <v>237</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D136" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B137" t="s">
-        <v>58</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B139" t="s">
-        <v>26</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0.6</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>66</v>
-      </c>
-      <c r="D141" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B142" t="s">
-        <v>136</v>
+        <v>210</v>
+      </c>
+      <c r="D142" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B144" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D144" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D146" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D156" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B158" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>26</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0.6</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>102</v>
-      </c>
-      <c r="D161" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>121</v>
+        <v>66</v>
+      </c>
+      <c r="D162" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>100</v>
-      </c>
-      <c r="D164" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>223</v>
+        <v>88</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>122</v>
+        <v>100</v>
+      </c>
+      <c r="D185" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>42</v>
+        <v>98</v>
+      </c>
+      <c r="D188" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>158</v>
-      </c>
-      <c r="D190" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B204" t="s">
+        <v>72</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>156</v>
+      </c>
+      <c r="D217" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>91</v>
-      </c>
-      <c r="D193" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B194" t="s">
-        <v>120</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B195" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>89</v>
+      </c>
+      <c r="D220" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B221" t="s">
+        <v>118</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B222" t="s">
         <v>39</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
+      <c r="C222" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>40</v>
       </c>
-      <c r="D196" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>137</v>
-      </c>
-      <c r="D197" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
+      <c r="D223" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>135</v>
+      </c>
+      <c r="D224" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B231" t="s">
+        <v>45</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B233" t="s">
+        <v>197</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B235" t="s">
+        <v>46</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>47</v>
+      </c>
+      <c r="D236" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B203" t="s">
-        <v>45</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>46</v>
-      </c>
-      <c r="C206" s="3"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>47</v>
-      </c>
-      <c r="D207" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B207">
+  <autoFilter ref="A1:B236">
     <sortState ref="A2:B150">
       <sortCondition ref="B1:B146"/>
     </sortState>

--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -12,14 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$265</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="313">
   <si>
     <t>Mod Name</t>
   </si>
@@ -456,9 +457,6 @@
     <t>Resonant Induction</t>
   </si>
   <si>
-    <t>ICBM</t>
-  </si>
-  <si>
     <t>Tubes</t>
   </si>
   <si>
@@ -534,9 +532,6 @@
     <t>1.7.10_01</t>
   </si>
   <si>
-    <t>10.13.0.1180</t>
-  </si>
-  <si>
     <t>1.0.2.6</t>
   </si>
   <si>
@@ -868,6 +863,102 @@
   </si>
   <si>
     <t>3D Furnace</t>
+  </si>
+  <si>
+    <t>Enchvil</t>
+  </si>
+  <si>
+    <t>InvWorks</t>
+  </si>
+  <si>
+    <t>TechnoMagi</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Rock Digger</t>
+  </si>
+  <si>
+    <t>ChatFlow</t>
+  </si>
+  <si>
+    <t>Draconic Evolution</t>
+  </si>
+  <si>
+    <t>Universal Electricity</t>
+  </si>
+  <si>
+    <t>Warp Book</t>
+  </si>
+  <si>
+    <t>QuarryPlus</t>
+  </si>
+  <si>
+    <t>GrowthCraft</t>
+  </si>
+  <si>
+    <t>Morph</t>
+  </si>
+  <si>
+    <t>Computronics</t>
+  </si>
+  <si>
+    <t>HungerOverhaul</t>
+  </si>
+  <si>
+    <t>Bdew's Mods</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>RPG Advanced Mod</t>
+  </si>
+  <si>
+    <t>Modular Machines</t>
+  </si>
+  <si>
+    <t>Extra Carts</t>
+  </si>
+  <si>
+    <t>Currently in Alpha</t>
+  </si>
+  <si>
+    <t>Ported</t>
+  </si>
+  <si>
+    <t>Xycraft</t>
+  </si>
+  <si>
+    <t>Pam's Mods</t>
+  </si>
+  <si>
+    <t>Player Beacons</t>
+  </si>
+  <si>
+    <t>Hydraulicraft</t>
+  </si>
+  <si>
+    <t>Artillects</t>
+  </si>
+  <si>
+    <t>Formally ICBM</t>
+  </si>
+  <si>
+    <t>WorldEditCUI</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>10.13.0.1188</t>
   </si>
 </sst>
 </file>
@@ -1218,13 +1309,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1338,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1354,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,11 +1363,14 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,17 +1380,17 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1307,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1321,12 +1415,12 @@
         <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,15 +1442,18 @@
         <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="B16" t="s">
         <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,7 +1461,7 @@
         <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,22 +1472,22 @@
         <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,537 +1507,579 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C37" s="2">
         <v>6.13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C38" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="D48" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" t="s">
-        <v>273</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" t="s">
-        <v>275</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>10</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>192</v>
+        <v>198</v>
+      </c>
+      <c r="D71" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>186</v>
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="B80" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="B81" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B82" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82" t="s">
-        <v>230</v>
+        <v>96</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>205</v>
+        <v>117</v>
+      </c>
+      <c r="D86" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>198</v>
+        <v>133</v>
+      </c>
+      <c r="D87" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>255</v>
+        <v>139</v>
+      </c>
+      <c r="D88" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>90</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B90" t="s">
-        <v>251</v>
-      </c>
-      <c r="D90" t="s">
-        <v>230</v>
+        <v>14</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>112</v>
+        <v>203</v>
+      </c>
+      <c r="D93" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>249</v>
+      </c>
+      <c r="D97" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="C102" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>219</v>
-      </c>
-      <c r="D110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,774 +2089,940 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>145</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>195</v>
+        <v>217</v>
+      </c>
+      <c r="D118" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B120" t="s">
-        <v>73</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B122" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>20</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>306</v>
       </c>
       <c r="D125" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B130" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" t="s">
         <v>63</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B136" t="s">
-        <v>237</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D136" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B142" t="s">
-        <v>210</v>
-      </c>
-      <c r="D142" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>234</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D144" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>64</v>
-      </c>
-      <c r="D146" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B147" t="s">
-        <v>183</v>
+        <v>235</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D147" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>82</v>
-      </c>
-      <c r="D151" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>208</v>
+      </c>
+      <c r="D153" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>248</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B155" t="s">
-        <v>264</v>
+        <v>232</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D155" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>24</v>
-      </c>
-      <c r="D156" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>263</v>
+        <v>64</v>
+      </c>
+      <c r="D157" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B158" t="s">
-        <v>58</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B164" t="s">
+        <v>82</v>
+      </c>
+      <c r="D164" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B171" t="s">
+        <v>58</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B160" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B173" t="s">
         <v>26</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C173" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B175" t="s">
         <v>66</v>
       </c>
-      <c r="D162" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+      <c r="D175" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B193" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B195" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B197" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
         <v>100</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D201" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>98</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D204" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B212" t="s">
+        <v>297</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B204" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B222" t="s">
         <v>72</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C222" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
-        <v>156</v>
-      </c>
-      <c r="D217" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
-        <v>89</v>
-      </c>
-      <c r="D220" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B221" t="s">
-        <v>118</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B222" t="s">
-        <v>39</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>40</v>
-      </c>
-      <c r="D223" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>135</v>
-      </c>
-      <c r="D224" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="B226" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B231" t="s">
-        <v>45</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>220</v>
+        <v>120</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="B232" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B233" t="s">
-        <v>197</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>272</v>
+        <v>41</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B235" t="s">
-        <v>46</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="D236" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>211</v>
+        <v>89</v>
+      </c>
+      <c r="D239" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B241" t="s">
+        <v>118</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B242" t="s">
+        <v>39</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>40</v>
+      </c>
+      <c r="D243" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>135</v>
+      </c>
+      <c r="D244" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B250" t="s">
+        <v>45</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B253" t="s">
+        <v>195</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B255" t="s">
+        <v>46</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B256" t="s">
+        <v>47</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B259" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B261" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
-        <v>259</v>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B236">
-    <sortState ref="A2:B150">
-      <sortCondition ref="B1:B146"/>
+  <autoFilter ref="A1:D265">
+    <sortState ref="A2:D257">
+      <sortCondition ref="B1:B257"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$274</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="329">
   <si>
     <t>Mod Name</t>
   </si>
@@ -1004,6 +1004,9 @@
   </si>
   <si>
     <t>Mouse Tweaks</t>
+  </si>
+  <si>
+    <t>Not Enough Keys</t>
   </si>
 </sst>
 </file>
@@ -1354,13 +1357,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B269" sqref="B269"/>
+      <selection pane="bottomRight" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,414 +2604,408 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B180" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" t="s">
         <v>26</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C181" s="2">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>66</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F184" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>302</v>
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>213</v>
+        <v>31</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>100</v>
-      </c>
-      <c r="F209" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="F210" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>98</v>
-      </c>
-      <c r="F212" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>34</v>
+        <v>98</v>
+      </c>
+      <c r="F213" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>283</v>
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B220" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B221" t="s">
         <v>295</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C221" s="2" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B230" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B231" t="s">
         <v>72</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C231" s="2">
         <v>1.26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>155</v>
-      </c>
-      <c r="F244" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>221</v>
+        <v>155</v>
+      </c>
+      <c r="F245" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>89</v>
-      </c>
-      <c r="F247" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
+        <v>89</v>
+      </c>
+      <c r="F248" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B249" t="s">
-        <v>118</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,167 +3013,178 @@
         <v>59</v>
       </c>
       <c r="B250" t="s">
+        <v>118</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B251" t="s">
         <v>39</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
-        <v>40</v>
-      </c>
-      <c r="F251" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="F252" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>254</v>
+        <v>135</v>
+      </c>
+      <c r="F253" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B258" t="s">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B259" t="s">
         <v>45</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C259" s="2" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B261" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B262" t="s">
         <v>195</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C262" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B263" t="s">
-        <v>46</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B264" t="s">
+        <v>46</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B265" t="s">
         <v>47</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C265" s="2" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B270" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>65</v>
+        <v>306</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>300</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F266">
+  <autoFilter ref="A1:F274">
     <sortState ref="A2:F273">
       <sortCondition ref="B1:B266"/>
     </sortState>

--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -12,15 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$275</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="348">
   <si>
     <t>Mod Name</t>
   </si>
@@ -256,9 +255,6 @@
     <t>Aroma1997Core</t>
   </si>
   <si>
-    <t>Biomes o' Plenty</t>
-  </si>
-  <si>
     <t>CustomMobSpawner</t>
   </si>
   <si>
@@ -952,9 +948,6 @@
     <t>1.5.3</t>
   </si>
   <si>
-    <t>10.13.0.1188</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -1007,6 +1000,69 @@
   </si>
   <si>
     <t>Not Enough Keys</t>
+  </si>
+  <si>
+    <t>Thermal Foundation</t>
+  </si>
+  <si>
+    <t>FLORA</t>
+  </si>
+  <si>
+    <t>Torchools</t>
+  </si>
+  <si>
+    <t>IHL Tools &amp; Machines</t>
+  </si>
+  <si>
+    <t>Races for Minecraft</t>
+  </si>
+  <si>
+    <t>Craft Heraldry</t>
+  </si>
+  <si>
+    <t>Builder's Guides</t>
+  </si>
+  <si>
+    <t>Spatial IO Compat</t>
+  </si>
+  <si>
+    <t>MoarPeripherals</t>
+  </si>
+  <si>
+    <t>Deepcore</t>
+  </si>
+  <si>
+    <t>Quick Hotbar Mod</t>
+  </si>
+  <si>
+    <t>LanteaCraft</t>
+  </si>
+  <si>
+    <t>2.0 beta.147</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>BiblioWoods Biomes O'Plenty Edition</t>
+  </si>
+  <si>
+    <t>Biomes O' Plenty</t>
+  </si>
+  <si>
+    <t>1.7.4</t>
+  </si>
+  <si>
+    <t>1.0.2.16</t>
+  </si>
+  <si>
+    <t>10.13.0.1199</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>1.1.0e</t>
   </si>
 </sst>
 </file>
@@ -1357,13 +1413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B180" sqref="B180"/>
+      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,10 +1437,10 @@
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F1" t="s">
         <v>74</v>
@@ -1392,12 +1448,12 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1408,13 +1464,13 @@
         <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1424,41 +1480,41 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,13 +1525,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" t="s">
         <v>313</v>
-      </c>
-      <c r="F12" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,32 +1542,32 @@
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,7 +1581,7 @@
         <v>1.27</v>
       </c>
       <c r="F16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,10 +1592,10 @@
         <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,21 +1603,21 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>344</v>
       </c>
       <c r="F18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,39 +1625,39 @@
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" t="s">
         <v>304</v>
-      </c>
-      <c r="F22" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1621,22 +1677,22 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,13 +1700,13 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,69 +1717,69 @@
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="F33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>341</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B36" t="s">
-        <v>282</v>
+        <v>342</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>6</v>
+      <c r="C38" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>216</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="2">
-        <v>6.13</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,172 +1787,172 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>130</v>
+      <c r="C42" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="B44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>7</v>
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>148</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>294</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B65" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>265</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1904,112 +1960,118 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B67" t="s">
-        <v>257</v>
+        <v>126</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>212</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>198</v>
-      </c>
-      <c r="F74" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>109</v>
+        <v>197</v>
+      </c>
+      <c r="F75" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>279</v>
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>294</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>12</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,1006 +2079,1009 @@
         <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>167</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>117</v>
-      </c>
-      <c r="F89" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F91" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>297</v>
+        <v>138</v>
+      </c>
+      <c r="F92" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B93" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>197</v>
+      <c r="C94" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>203</v>
-      </c>
-      <c r="F96" t="s">
-        <v>298</v>
+      <c r="C96" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>196</v>
+        <v>202</v>
+      </c>
+      <c r="F97" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="B100" t="s">
-        <v>247</v>
-      </c>
-      <c r="F100" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>277</v>
+        <v>246</v>
+      </c>
+      <c r="F101" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B105" t="s">
-        <v>55</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>310</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>294</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B107" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>217</v>
-      </c>
-      <c r="F121" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>110</v>
+        <v>216</v>
+      </c>
+      <c r="F122" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>324</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B133" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" t="s">
         <v>73</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+      <c r="C134" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>280</v>
+      <c r="C136" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>20</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B140" t="s">
         <v>57</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>180</v>
+      <c r="C140" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B145" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" t="s">
         <v>63</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>256</v>
+      <c r="C146" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B151" t="s">
+        <v>232</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="F151" t="s">
         <v>234</v>
-      </c>
-      <c r="F150" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>323</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>126</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>326</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>95</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="B158" t="s">
-        <v>208</v>
-      </c>
-      <c r="F158" t="s">
-        <v>264</v>
+        <v>94</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B159" t="s">
-        <v>94</v>
+        <v>207</v>
+      </c>
+      <c r="F159" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B160" t="s">
-        <v>320</v>
+        <v>93</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>59</v>
+        <v>293</v>
       </c>
       <c r="B161" t="s">
-        <v>231</v>
-      </c>
-      <c r="C161" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B162" t="s">
+        <v>230</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F162" t="s">
         <v>238</v>
-      </c>
-      <c r="F161" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>64</v>
-      </c>
-      <c r="F163" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>181</v>
+        <v>64</v>
+      </c>
+      <c r="F164" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>296</v>
+        <v>85</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>136</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>290</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B171" t="s">
-        <v>82</v>
-      </c>
-      <c r="F171" t="s">
-        <v>228</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="B172" t="s">
-        <v>187</v>
+        <v>81</v>
+      </c>
+      <c r="F172" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B173" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B174" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>24</v>
-      </c>
-      <c r="F176" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>259</v>
+        <v>24</v>
+      </c>
+      <c r="F177" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B178" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179" t="s">
         <v>58</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>328</v>
+      <c r="C179" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B181" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B182" t="s">
         <v>26</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C182" s="2">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>325</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B184" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B185" t="s">
         <v>66</v>
       </c>
-      <c r="F184" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>246</v>
+      <c r="F185" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>29</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>213</v>
+        <v>31</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B202" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="B203" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B204" t="s">
-        <v>288</v>
+        <v>87</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="B205" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B206" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B207" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>100</v>
-      </c>
-      <c r="F210" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="F211" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>98</v>
-      </c>
-      <c r="F213" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="F214" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>283</v>
+        <v>143</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>201</v>
+        <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B221" t="s">
-        <v>295</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B222" t="s">
-        <v>37</v>
+        <v>294</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>132</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B231" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B232" t="s">
         <v>72</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C232" s="2">
         <v>1.26</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B235" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="B236" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B242" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B241" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>155</v>
-      </c>
-      <c r="F245" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>221</v>
+        <v>154</v>
+      </c>
+      <c r="F246" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>89</v>
-      </c>
-      <c r="F248" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>207</v>
+        <v>88</v>
+      </c>
+      <c r="F249" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B250" t="s">
-        <v>118</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -3024,167 +3089,238 @@
         <v>59</v>
       </c>
       <c r="B251" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B252" t="s">
-        <v>40</v>
-      </c>
-      <c r="F252" t="s">
-        <v>299</v>
+        <v>39</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="F253" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>254</v>
+        <v>134</v>
+      </c>
+      <c r="F254" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B259" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B260" t="s">
         <v>45</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
-        <v>286</v>
+      <c r="C260" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B262" t="s">
-        <v>195</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>268</v>
+        <v>155</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B263" t="s">
-        <v>243</v>
+        <v>194</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B264" t="s">
-        <v>46</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
+        <v>242</v>
+      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B265" t="s">
+        <v>46</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B266" t="s">
         <v>47</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
-        <v>131</v>
+      <c r="C266" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>287</v>
+        <v>130</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B268" t="s">
-        <v>84</v>
+        <v>286</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="B269" t="s">
-        <v>209</v>
+        <v>83</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="B270" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B271" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>65</v>
+        <v>305</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>300</v>
+        <v>65</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>255</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F274">
+  <autoFilter ref="A1:F275">
     <sortState ref="A2:F273">
       <sortCondition ref="B1:B266"/>
     </sortState>

--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="354">
   <si>
     <t>Mod Name</t>
   </si>
@@ -1063,6 +1063,24 @@
   </si>
   <si>
     <t>1.1.0e</t>
+  </si>
+  <si>
+    <t>0.8.86</t>
+  </si>
+  <si>
+    <t>4.4.5.44</t>
+  </si>
+  <si>
+    <t>1.1.0.296</t>
+  </si>
+  <si>
+    <t>6.0.41.729</t>
+  </si>
+  <si>
+    <t>2.2.0 b1</t>
+  </si>
+  <si>
+    <t>1.5.7.6</t>
   </si>
 </sst>
 </file>
@@ -1416,10 +1434,10 @@
   <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomRight" activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,10 +2205,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="B100" t="s">
         <v>89</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,10 +2258,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
         <v>56</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2409,8 +2433,14 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B138" t="s">
         <v>20</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,10 +2668,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="B174" t="s">
         <v>23</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,91 +2788,100 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="B203" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="B205" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="B207" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>261</v>
       </c>

--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\remly's minecraft\RemTModPack_V2-master\instances\RemTModPack_V3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="5445" windowHeight="2415"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$275</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$287</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="391">
   <si>
     <t>Mod Name</t>
   </si>
@@ -966,9 +971,6 @@
     <t>Will likely not use</t>
   </si>
   <si>
-    <t>Pending Permissions</t>
-  </si>
-  <si>
     <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1289952-archimedes-ships-v1-7-banking-ships</t>
   </si>
   <si>
@@ -1081,6 +1083,120 @@
   </si>
   <si>
     <t>1.5.7.6</t>
+  </si>
+  <si>
+    <t>http://ag.teamdna.de/wiki/mc17/index.html?art=license</t>
+  </si>
+  <si>
+    <t>see link</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1282347-bspkrs-mods-armorstatushud-directionhud</t>
+  </si>
+  <si>
+    <t>need to pm aroma for permission</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1287828-aroma1997s-mods-betterchests-mining-world-mod</t>
+  </si>
+  <si>
+    <t>http://www.bibliocraftmod.com/</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1286162-biomes-o-plenty-over-75-new-biomes-plants-and-more</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1290532-1-7-10-2-1-6-4-blood-magic-v1-1-0-updated-jul-13</t>
+  </si>
+  <si>
+    <t>www.mod-buildcraft.com</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1286538-hit-splat-damage-indicators-v3-1-2-rpg-ui-and</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1279956-chickenbones-mods</t>
+  </si>
+  <si>
+    <t>http://ichun.us/</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1292016-1-7-10-1-7-2-1-6-4-decocraft-decorations-and</t>
+  </si>
+  <si>
+    <t>http://ichun.us/support/mod-packs/</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1291161-1-7-1-6-1-5-ender-io-how-many-pipes-in-one-block</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/2091978-1-7-10-ender-utilities</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/wip-mods/1443963-extra-utilities-v1-1-0f</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>https://github.com/M3gaFr3ak/ExtraCells/wiki/License</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1289077-ae-add-on-m3gas-extracells-1-6-9e-2-1-3-2-1-8</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1284592-factorization-0-8-87</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1290357-forge-multipart-projectred-v4-4-5-44-7-8-2014</t>
+  </si>
+  <si>
+    <t>http://www.industrial-craft.net/</t>
+  </si>
+  <si>
+    <t>http://forum.industrial-craft.net/index.php?page=Thread&amp;threadID=7994</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1288184-inventory-tweaks-1-58-july-25</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1280827-1-5-and-up-forge-universal-ironchests-5-0</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1290155-liteloader-for-minecraft-1-7-10</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1287648-tinkers-construct</t>
+  </si>
+  <si>
+    <t>https://github.com/minecraftforge</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/2141720-minemenu-v1-1-4-radial-menu-nuff-said</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1294968-natura</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1288467-active-1-7-10-ssp-smp-forge-yogpstops-mods</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1289551-1-6-x-1-7-2-1-7-10-random-things-2-0-remake</t>
+  </si>
+  <si>
+    <t>http://openeye.openmods.info/faq</t>
+  </si>
+  <si>
+    <t>http://openeye.openmods.info/</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1276258-the-twilight-forest-v2-2-3-domain-of-the-alpha</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/2091981-version-checker-auto-update-mods-and-clean</t>
+  </si>
+  <si>
+    <t>http://www.mobiusstrip.eu/</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1206,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1116,10 +1240,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1130,8 +1255,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1139,6 +1269,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1187,7 +1320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1222,7 +1355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1431,13 +1564,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C200" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C208" sqref="C208"/>
+      <selection pane="bottomRight" activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,6 +1579,7 @@
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="3" max="5" width="18.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1458,18 +1593,18 @@
         <v>309</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>128</v>
       </c>
@@ -1484,19 +1619,19 @@
       <c r="C4" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>293</v>
       </c>
@@ -1507,22 +1642,22 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>240</v>
       </c>
@@ -1530,7 +1665,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>252</v>
       </c>
@@ -1545,11 +1680,11 @@
       <c r="C12" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F12" t="s">
-        <v>313</v>
+      <c r="E12" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,19 +1697,19 @@
       <c r="C13" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>293</v>
       </c>
@@ -1582,7 +1717,7 @@
         <v>275</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
         <v>313</v>
@@ -1598,8 +1733,11 @@
       <c r="C16" s="2">
         <v>1.27</v>
       </c>
-      <c r="F16" t="s">
-        <v>313</v>
+      <c r="D16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,8 +1750,14 @@
       <c r="C17" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F17" t="s">
-        <v>313</v>
+      <c r="D17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,13 +1768,16 @@
         <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>104</v>
       </c>
@@ -1648,16 +1795,19 @@
       <c r="C20" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>163</v>
       </c>
@@ -1668,47 +1818,47 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>160</v>
       </c>
@@ -1723,8 +1873,11 @@
       <c r="C32" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F32" t="s">
-        <v>313</v>
+      <c r="D32" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,10 +1888,13 @@
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F33" t="s">
-        <v>313</v>
+        <v>342</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,13 +1902,19 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C34" s="2">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>115</v>
       </c>
@@ -1762,16 +1924,19 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F36" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>281</v>
       </c>
@@ -1784,18 +1949,21 @@
         <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F38" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>215</v>
       </c>
@@ -1810,6 +1978,12 @@
       <c r="C41" s="2">
         <v>6.13</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1821,18 +1995,24 @@
       <c r="C42" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>163</v>
       </c>
@@ -1843,32 +2023,32 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>8</v>
       </c>
@@ -1883,8 +2063,14 @@
       <c r="C52" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>293</v>
       </c>
@@ -1892,7 +2078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>293</v>
       </c>
@@ -1900,7 +2086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>293</v>
       </c>
@@ -1911,7 +2097,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>293</v>
       </c>
@@ -1919,27 +2105,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>293</v>
       </c>
@@ -1947,12 +2133,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>185</v>
       </c>
@@ -1967,8 +2153,14 @@
       <c r="C64" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>114</v>
       </c>
@@ -1983,6 +2175,12 @@
       <c r="C66" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="D66" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -1994,43 +2192,49 @@
       <c r="C67" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>197</v>
       </c>
@@ -2038,37 +2242,37 @@
         <v>270</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>11</v>
       </c>
@@ -2076,7 +2280,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>278</v>
       </c>
@@ -2089,7 +2293,13 @@
         <v>12</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,7 +2310,13 @@
         <v>210</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2113,23 +2329,29 @@
       <c r="C86" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>116</v>
       </c>
@@ -2137,7 +2359,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>132</v>
       </c>
@@ -2145,7 +2367,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>138</v>
       </c>
@@ -2153,7 +2375,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>296</v>
       </c>
@@ -2168,8 +2390,14 @@
       <c r="C94" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>196</v>
       </c>
@@ -2182,10 +2410,16 @@
         <v>15</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>202</v>
       </c>
@@ -2193,12 +2427,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>250</v>
       </c>
@@ -2211,10 +2445,16 @@
         <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>246</v>
       </c>
@@ -2222,17 +2462,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>293</v>
       </c>
@@ -2240,7 +2480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>111</v>
       </c>
@@ -2253,7 +2493,10 @@
         <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,80 +2507,86 @@
         <v>56</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>216</v>
       </c>
@@ -2345,62 +2594,62 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>59</v>
       </c>
@@ -2410,13 +2659,19 @@
       <c r="C134" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,13 +2681,19 @@
       <c r="C136" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>59</v>
       </c>
@@ -2440,15 +2701,21 @@
         <v>20</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>59</v>
       </c>
@@ -2458,28 +2725,34 @@
       <c r="C140" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>221</v>
       </c>
@@ -2494,23 +2767,29 @@
       <c r="C146" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D146" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>21</v>
       </c>
@@ -2525,46 +2804,52 @@
       <c r="C151" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="D151" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="F151" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
@@ -2575,17 +2860,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B161" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -2598,16 +2883,22 @@
       <c r="C162" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="D162" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="F162" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>64</v>
       </c>
@@ -2615,42 +2906,42 @@
         <v>227</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>293</v>
       </c>
@@ -2661,7 +2952,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>186</v>
       </c>
@@ -2674,20 +2965,26 @@
         <v>23</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>24</v>
       </c>
@@ -2695,7 +2992,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>258</v>
       </c>
@@ -2710,13 +3007,19 @@
       <c r="C179" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D179" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>25</v>
       </c>
@@ -2731,18 +3034,24 @@
       <c r="C182" s="2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D182" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>293</v>
       </c>
@@ -2753,92 +3062,92 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>59</v>
       </c>
@@ -2846,15 +3155,21 @@
         <v>80</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>59</v>
       </c>
@@ -2862,15 +3177,21 @@
         <v>287</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>59</v>
       </c>
@@ -2880,23 +3201,29 @@
       <c r="C207" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>99</v>
       </c>
@@ -2904,17 +3231,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>97</v>
       </c>
@@ -2922,37 +3249,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>200</v>
       </c>
@@ -2967,53 +3294,56 @@
       <c r="C222" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D222" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>59</v>
       </c>
@@ -3023,23 +3353,29 @@
       <c r="C232" s="2">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>293</v>
       </c>
@@ -3047,32 +3383,32 @@
         <v>84</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>293</v>
       </c>
@@ -3080,22 +3416,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>154</v>
       </c>
@@ -3103,17 +3439,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>88</v>
       </c>
@@ -3121,7 +3457,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>206</v>
       </c>
@@ -3136,6 +3472,12 @@
       <c r="C251" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="D251" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
@@ -3147,8 +3489,14 @@
       <c r="C252" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D252" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>40</v>
       </c>
@@ -3156,7 +3504,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>134</v>
       </c>
@@ -3164,27 +3512,27 @@
         <v>227</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>144</v>
       </c>
@@ -3199,13 +3547,19 @@
       <c r="C260" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D260" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>155</v>
       </c>
@@ -3220,8 +3574,14 @@
       <c r="C263" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D263" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>242</v>
       </c>
@@ -3249,18 +3609,24 @@
       <c r="C266" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D266" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>293</v>
       </c>
@@ -3268,12 +3634,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>293</v>
       </c>
@@ -3281,94 +3647,109 @@
         <v>67</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
+    <row r="278" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
+    <row r="279" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" t="s">
+    <row r="281" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" t="s">
+    <row r="284" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" t="s">
+    <row r="285" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" t="s">
+    <row r="286" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
+    <row r="287" spans="2:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
-        <v>338</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F275">
+  <autoFilter ref="A1:F287">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="X"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:F273">
       <sortCondition ref="B1:B266"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D12" r:id="rId2"/>
+    <hyperlink ref="D13" r:id="rId3"/>
+    <hyperlink ref="D42" r:id="rId4" display="http://www.mod-buildcraft.com/"/>
+    <hyperlink ref="D86" r:id="rId5"/>
+    <hyperlink ref="D66" r:id="rId6"/>
+    <hyperlink ref="D134" r:id="rId7"/>
+    <hyperlink ref="E106" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="405">
   <si>
     <t>Mod Name</t>
   </si>
@@ -1218,6 +1218,21 @@
   </si>
   <si>
     <t>Renamed to Resonant Engine</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>0.20.0</t>
+  </si>
+  <si>
+    <t>5.6.2</t>
+  </si>
+  <si>
+    <t>1.7.10 00</t>
+  </si>
+  <si>
+    <t>1.2.9 we5.6.2</t>
   </si>
 </sst>
 </file>
@@ -1626,10 +1641,10 @@
   <dimension ref="A1:G287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,10 +1833,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>272</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>311</v>
@@ -4459,10 +4477,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>387</v>
@@ -4478,32 +4499,47 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="C271" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="G271" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B272" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="C272" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="G272" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B273" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C273" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="G273" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
         <v>296</v>
       </c>
@@ -4511,7 +4547,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B275" s="2" t="s">
         <v>252</v>
       </c>
@@ -4519,7 +4555,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B276" s="2" t="s">
         <v>322</v>
       </c>
@@ -4527,7 +4563,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B277" s="2" t="s">
         <v>323</v>
       </c>
@@ -4535,7 +4571,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B278" s="2" t="s">
         <v>324</v>
       </c>
@@ -4543,7 +4579,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B279" s="2" t="s">
         <v>328</v>
       </c>
@@ -4551,7 +4587,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B280" s="2" t="s">
         <v>325</v>
       </c>
@@ -4559,7 +4595,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B281" s="2" t="s">
         <v>326</v>
       </c>
@@ -4567,7 +4603,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B282" s="2" t="s">
         <v>327</v>
       </c>
@@ -4575,7 +4611,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B283" s="2" t="s">
         <v>329</v>
       </c>
@@ -4583,7 +4619,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B284" s="2" t="s">
         <v>330</v>
       </c>
@@ -4591,7 +4627,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B285" s="2" t="s">
         <v>331</v>
       </c>
@@ -4599,7 +4635,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B286" s="2" t="s">
         <v>332</v>
       </c>
@@ -4607,7 +4643,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B287" s="2" t="s">
         <v>333</v>
       </c>

--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="406">
   <si>
     <t>Mod Name</t>
   </si>
@@ -1233,6 +1233,9 @@
   </si>
   <si>
     <t>1.2.9 we5.6.2</t>
+  </si>
+  <si>
+    <t>1.7.10</t>
   </si>
 </sst>
 </file>
@@ -1641,10 +1644,10 @@
   <dimension ref="A1:G287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C273" sqref="C273"/>
+      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,10 +2399,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>387</v>

--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="5445" windowHeight="2415"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Mod List" sheetId="1" r:id="rId1"/>
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mod List'!$A$1:$G$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mod List'!$A$1:$G$335</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="542">
   <si>
     <t>Mod Name</t>
   </si>
@@ -449,9 +450,6 @@
     <t>Resonant Induction</t>
   </si>
   <si>
-    <t>Tubes</t>
-  </si>
-  <si>
     <t>Buildtech</t>
   </si>
   <si>
@@ -506,42 +504,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>2.2.505</t>
-  </si>
-  <si>
-    <t>1.0.2.11</t>
-  </si>
-  <si>
-    <t>1.4.4.6</t>
-  </si>
-  <si>
-    <t>1.0.2.28</t>
-  </si>
-  <si>
-    <t>1.7.10_01</t>
-  </si>
-  <si>
-    <t>1.0.2.6</t>
-  </si>
-  <si>
-    <t>0.0.0.2</t>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
-  </si>
-  <si>
-    <t>rv1 alpha 5</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>1.9b</t>
-  </si>
-  <si>
-    <t>6.0.17</t>
-  </si>
-  <si>
     <t>Spice of Life</t>
   </si>
   <si>
@@ -611,9 +573,6 @@
     <t>Even More Utilities</t>
   </si>
   <si>
-    <t>iChun's Mods</t>
-  </si>
-  <si>
     <t>Rouge Like Dungeons</t>
   </si>
   <si>
@@ -665,9 +624,6 @@
     <t>Harvest Craft</t>
   </si>
   <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
     <t>Steve's Carts 2</t>
   </si>
   <si>
@@ -683,9 +639,6 @@
     <t>Redstone Arsenal</t>
   </si>
   <si>
-    <t>Immibis' Mods</t>
-  </si>
-  <si>
     <t>Asie's Immibis' Peripherals Port</t>
   </si>
   <si>
@@ -698,36 +651,18 @@
     <t>Pending 1.7.10 version</t>
   </si>
   <si>
-    <t>1.5.6</t>
-  </si>
-  <si>
     <t>Journey Map</t>
   </si>
   <si>
     <t>MineMenu</t>
   </si>
   <si>
-    <t>2.1.0</t>
-  </si>
-  <si>
     <t>Mantle</t>
   </si>
   <si>
-    <t>0.3.0</t>
-  </si>
-  <si>
     <t>Tinkers Construct mod requirement</t>
   </si>
   <si>
-    <t>1.6.0.d33</t>
-  </si>
-  <si>
-    <t>1.1.8a</t>
-  </si>
-  <si>
-    <t>1.0.0.2</t>
-  </si>
-  <si>
     <t>Adds shortcut wheel, accessed by holding "R"</t>
   </si>
   <si>
@@ -740,9 +675,6 @@
     <t>Better Foliage</t>
   </si>
   <si>
-    <t>Void</t>
-  </si>
-  <si>
     <t>Nearby Mob Finder</t>
   </si>
   <si>
@@ -806,12 +738,6 @@
     <t>Will not be included</t>
   </si>
   <si>
-    <t>3.0.1</t>
-  </si>
-  <si>
-    <t>1.57-116</t>
-  </si>
-  <si>
     <t>1.2.2</t>
   </si>
   <si>
@@ -932,9 +858,6 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>1.5.3</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -1022,9 +945,6 @@
     <t>LanteaCraft</t>
   </si>
   <si>
-    <t>2.0 beta.147</t>
-  </si>
-  <si>
     <t>1.1.0</t>
   </si>
   <si>
@@ -1034,39 +954,9 @@
     <t>Biomes O' Plenty</t>
   </si>
   <si>
-    <t>1.7.4</t>
-  </si>
-  <si>
     <t>1.0.2.16</t>
   </si>
   <si>
-    <t>10.13.0.1199</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
-    <t>1.1.0e</t>
-  </si>
-  <si>
-    <t>0.8.86</t>
-  </si>
-  <si>
-    <t>4.4.5.44</t>
-  </si>
-  <si>
-    <t>1.1.0.296</t>
-  </si>
-  <si>
-    <t>6.0.41.729</t>
-  </si>
-  <si>
-    <t>2.2.0 b1</t>
-  </si>
-  <si>
-    <t>1.5.7.6</t>
-  </si>
-  <si>
     <t>http://ag.teamdna.de/wiki/mc17/index.html?art=license</t>
   </si>
   <si>
@@ -1223,19 +1113,538 @@
     <t>1.7.1</t>
   </si>
   <si>
-    <t>0.20.0</t>
-  </si>
-  <si>
     <t>5.6.2</t>
   </si>
   <si>
     <t>1.7.10 00</t>
   </si>
   <si>
-    <t>1.2.9 we5.6.2</t>
-  </si>
-  <si>
     <t>1.7.10</t>
+  </si>
+  <si>
+    <t>https://github.com/progwml6/compactsolars</t>
+  </si>
+  <si>
+    <t>http://www.curse.com/mc-mods/minecraft/compact-watermills</t>
+  </si>
+  <si>
+    <t>http://forum.industrial-craft.net/index.php?page=Thread&amp;threadID=9592</t>
+  </si>
+  <si>
+    <t>http://forum.industrial-craft.net/index.php?page=Thread&amp;threadID=9205</t>
+  </si>
+  <si>
+    <t>see aroma1997</t>
+  </si>
+  <si>
+    <t>http://www.computercraft.info/</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1279741-1-6-4-computercraft</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1278956-custom-npcs</t>
+  </si>
+  <si>
+    <t>http://forestry.sengir.net/wiki.new/doku.php</t>
+  </si>
+  <si>
+    <t>http://forestry.sengir.net/wiki.new/doku.php?id=main:downloads#license</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/2158443-minegicka-3-detailed-guides-available</t>
+  </si>
+  <si>
+    <t>http://binarymage.com/forum/</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1292610-server-admin-opis-1-2-1-the-server-admin</t>
+  </si>
+  <si>
+    <t>http://ichun.us/mods/sync/</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1292130-thaumcraft-4-2-0-0-updated-22-8-2014</t>
+  </si>
+  <si>
+    <t>http://www.6minecraft.net/zans-minimap/</t>
+  </si>
+  <si>
+    <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/wip-mods/1445248-witchery-0-20-5</t>
+  </si>
+  <si>
+    <t>https://github.com/Mumfrey/</t>
+  </si>
+  <si>
+    <t>Eclipse Public License</t>
+  </si>
+  <si>
+    <t>Admin Commands Toolbox</t>
+  </si>
+  <si>
+    <t>0.0.2a</t>
+  </si>
+  <si>
+    <t>Advanced Solar Panel</t>
+  </si>
+  <si>
+    <t>Aquaculture</t>
+  </si>
+  <si>
+    <t>1.2.5.8</t>
+  </si>
+  <si>
+    <t>1.5.7</t>
+  </si>
+  <si>
+    <t>59.0.1</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>1.0 b81</t>
+  </si>
+  <si>
+    <t>2.2.5</t>
+  </si>
+  <si>
+    <t>rv1 stable 1</t>
+  </si>
+  <si>
+    <t>1.0.2.9</t>
+  </si>
+  <si>
+    <t>0.0.0.5</t>
+  </si>
+  <si>
+    <t>Autofood</t>
+  </si>
+  <si>
+    <t>59.0.0</t>
+  </si>
+  <si>
+    <t>0.12.2</t>
+  </si>
+  <si>
+    <t>Back Tools</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>Bdlib</t>
+  </si>
+  <si>
+    <t>1.4.5.24</t>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>BiblioWoods Forestry Edition</t>
+  </si>
+  <si>
+    <t>BiblioWoods Natura Edition</t>
+  </si>
+  <si>
+    <t>0.4.0rc10</t>
+  </si>
+  <si>
+    <t>2.1.0.1004</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>r1.2-124</t>
+  </si>
+  <si>
+    <t>6.0.18</t>
+  </si>
+  <si>
+    <t>3.3.0</t>
+  </si>
+  <si>
+    <t>Cave Control</t>
+  </si>
+  <si>
+    <t>Chicken Chunks</t>
+  </si>
+  <si>
+    <t>1.3.4.13</t>
+  </si>
+  <si>
+    <t>ChromatiCraft</t>
+  </si>
+  <si>
+    <t>1.0.4.29</t>
+  </si>
+  <si>
+    <t>CoFHCore</t>
+  </si>
+  <si>
+    <t>3.0.0B6-32</t>
+  </si>
+  <si>
+    <t>CoFHLib</t>
+  </si>
+  <si>
+    <t>1.0.0B6-26</t>
+  </si>
+  <si>
+    <t>4.4.39.315</t>
+  </si>
+  <si>
+    <t>Crafting Pillars</t>
+  </si>
+  <si>
+    <t>1.5.8</t>
+  </si>
+  <si>
+    <t>Creeper Collateral</t>
+  </si>
+  <si>
+    <t>1.0.0B2-5</t>
+  </si>
+  <si>
+    <t>1.7.10b</t>
+  </si>
+  <si>
+    <t>DragonAPI</t>
+  </si>
+  <si>
+    <t>Dynamic Sword Skills</t>
+  </si>
+  <si>
+    <t>Dynamic Tanks</t>
+  </si>
+  <si>
+    <t>1.1.03</t>
+  </si>
+  <si>
+    <t>ElectriCraft</t>
+  </si>
+  <si>
+    <t>2.1.2.237</t>
+  </si>
+  <si>
+    <t>0.3.4</t>
+  </si>
+  <si>
+    <t>3.0.7</t>
+  </si>
+  <si>
+    <t>Expanded Redstone</t>
+  </si>
+  <si>
+    <t>2.1.12b9</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>1.1.0k</t>
+  </si>
+  <si>
+    <t>0.8.88.2</t>
+  </si>
+  <si>
+    <t>Flat Signs</t>
+  </si>
+  <si>
+    <t>2.0.0.17</t>
+  </si>
+  <si>
+    <t>FMP Integration</t>
+  </si>
+  <si>
+    <t>3.1.1.4</t>
+  </si>
+  <si>
+    <t>Currently not working with modpack</t>
+  </si>
+  <si>
+    <t>10.13.2.1230</t>
+  </si>
+  <si>
+    <t>1.1.0.309</t>
+  </si>
+  <si>
+    <t>Generators</t>
+  </si>
+  <si>
+    <t>0.9.2.15</t>
+  </si>
+  <si>
+    <t>GeoStrata</t>
+  </si>
+  <si>
+    <t>2.9.7</t>
+  </si>
+  <si>
+    <t>Gravi Suite</t>
+  </si>
+  <si>
+    <t>2.0.3</t>
+  </si>
+  <si>
+    <t>5.05.12</t>
+  </si>
+  <si>
+    <t>2.1.0a</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Hat Stand</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>IC2 Nuclear Control</t>
+  </si>
+  <si>
+    <t>2.0.5b</t>
+  </si>
+  <si>
+    <t>iChunUtil</t>
+  </si>
+  <si>
+    <t>immibis Core</t>
+  </si>
+  <si>
+    <t>59.0.3</t>
+  </si>
+  <si>
+    <t>2.2.650</t>
+  </si>
+  <si>
+    <t>INpureCore</t>
+  </si>
+  <si>
+    <t>1.0.0B1-1</t>
+  </si>
+  <si>
+    <t>Intelligent Energistics</t>
+  </si>
+  <si>
+    <t>2.1.4.541</t>
+  </si>
+  <si>
+    <t>1.59-dev-152</t>
+  </si>
+  <si>
+    <t>6.0.62.742</t>
+  </si>
+  <si>
+    <t>1.7.10_03</t>
+  </si>
+  <si>
+    <t>1.10.2.3</t>
+  </si>
+  <si>
+    <t>Magical Crops</t>
+  </si>
+  <si>
+    <t>0.3.2</t>
+  </si>
+  <si>
+    <t>7.1.0.92</t>
+  </si>
+  <si>
+    <t>4.1.0.32</t>
+  </si>
+  <si>
+    <t>2.8.0RC3-591</t>
+  </si>
+  <si>
+    <t>1.2.0.B44</t>
+  </si>
+  <si>
+    <t>3.0.9</t>
+  </si>
+  <si>
+    <t>Mob Amputation</t>
+  </si>
+  <si>
+    <t>Mob Dismemberment</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.2.0 we5.6.2</t>
+  </si>
+  <si>
+    <t>0.6-0</t>
+  </si>
+  <si>
+    <t>Multiworld</t>
+  </si>
+  <si>
+    <t>1.2.7</t>
+  </si>
+  <si>
+    <t>MumbleLink</t>
+  </si>
+  <si>
+    <t>4.1.1-2b3035b</t>
+  </si>
+  <si>
+    <t>2.2.0.1</t>
+  </si>
+  <si>
+    <t>1.12.2.9</t>
+  </si>
+  <si>
+    <t>NEI Plugins</t>
+  </si>
+  <si>
+    <t>1.1.0.11-unofficial</t>
+  </si>
+  <si>
+    <t>Nether Ores</t>
+  </si>
+  <si>
+    <t>2.3.0RC3-84</t>
+  </si>
+  <si>
+    <t>1.0.3.62</t>
+  </si>
+  <si>
+    <t>ObsidiPlates</t>
+  </si>
+  <si>
+    <t>3.0.0.32</t>
+  </si>
+  <si>
+    <t>1.2.11-26</t>
+  </si>
+  <si>
+    <t>Power Converters</t>
+  </si>
+  <si>
+    <t>4.5.1.51</t>
+  </si>
+  <si>
+    <t>2.0 RC4</t>
+  </si>
+  <si>
+    <t>9.3.3.0</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>ReactorCraft</t>
+  </si>
+  <si>
+    <t>1.1.0B4-10</t>
+  </si>
+  <si>
+    <t>1.4.3.B49</t>
+  </si>
+  <si>
+    <t>2.0.0.132</t>
+  </si>
+  <si>
+    <t>RotaryCraft</t>
+  </si>
+  <si>
+    <t>0.9c</t>
+  </si>
+  <si>
+    <t>2.0.0.b18</t>
+  </si>
+  <si>
+    <t>A93</t>
+  </si>
+  <si>
+    <t>1.0.1-3</t>
+  </si>
+  <si>
+    <t>1.7.0d4</t>
+  </si>
+  <si>
+    <t>4.2.1.4</t>
+  </si>
+  <si>
+    <t>Thaumcraft Mob Aspects</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>Thaumic Tinkerer</t>
+  </si>
+  <si>
+    <t>4.0.0B5-13</t>
+  </si>
+  <si>
+    <t>1.0.0B3-8</t>
+  </si>
+  <si>
+    <t>1.1.11b</t>
+  </si>
+  <si>
+    <t>Torch Levers</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Translocator</t>
+  </si>
+  <si>
+    <t>1.1.1.12</t>
+  </si>
+  <si>
+    <t>TubeStuff</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>4.0.0.81</t>
+  </si>
+  <si>
+    <t>UsefulTNT</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>Void Monster</t>
+  </si>
+  <si>
+    <t>1.5.5</t>
+  </si>
+  <si>
+    <t>WAILA NBT</t>
+  </si>
+  <si>
+    <t>WAWLA</t>
+  </si>
+  <si>
+    <t>1.0.6</t>
+  </si>
+  <si>
+    <t>0.20.6</t>
+  </si>
+  <si>
+    <t>1.4.1.6</t>
+  </si>
+  <si>
+    <t>Wireless Redstone: ChickenBones Edition (WR-CBE)</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1336,6 +1745,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1346,9 +1758,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1641,13 +2050,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G287"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C257" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomRight" activeCell="D333" sqref="D333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,13 +2076,13 @@
         <v>60</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>74</v>
@@ -1681,157 +2090,163 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>48</v>
+      <c r="C5" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>315</v>
+        <v>147</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>387</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>314</v>
+      <c r="E14" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,16 +2254,19 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>311</v>
+        <v>396</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,39 +2274,19 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.27</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>351</v>
+        <v>288</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,27 +2294,36 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>396</v>
+        <v>285</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>387</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1924,218 +2331,209 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>222</v>
+      <c r="E23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>275</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>387</v>
+        <v>399</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B28" s="2" t="s">
-        <v>268</v>
+        <v>232</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>387</v>
+        <v>402</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>396</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>395</v>
+        <v>243</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>395</v>
+        <v>264</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>387</v>
+        <v>404</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>395</v>
+        <v>217</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>278</v>
+        <v>158</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2143,35 +2541,59 @@
         <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B39" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>213</v>
+        <v>309</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,19 +2601,10 @@
         <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>408</v>
       </c>
       <c r="C41" s="3">
-        <v>6.13</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>387</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2199,202 +2612,238 @@
         <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>387</v>
+        <v>409</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.4</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>144</v>
+        <v>310</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>387</v>
+        <v>253</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>176</v>
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B49" s="2" t="s">
-        <v>280</v>
+        <v>70</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6.14</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B50" s="2" t="s">
-        <v>146</v>
+        <v>52</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="B56" s="2" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B57" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>387</v>
+        <v>416</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2402,29 +2851,32 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>417</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B62" s="2" t="s">
-        <v>258</v>
+        <v>8</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B63" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,27 +2884,30 @@
         <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B65" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>387</v>
+        <v>421</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2460,19 +2915,10 @@
         <v>59</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>155</v>
+        <v>423</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2480,147 +2926,222 @@
         <v>59</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="B68" s="2" t="s">
-        <v>254</v>
+        <v>75</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="B69" s="2" t="s">
-        <v>245</v>
+        <v>54</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>387</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>9</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B72" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>387</v>
+        <v>301</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B73" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>387</v>
+        <v>426</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>387</v>
+        <v>428</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B78" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B81" s="2" t="s">
-        <v>212</v>
+        <v>241</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>92</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B83" s="2" t="s">
-        <v>275</v>
+        <v>154</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2628,143 +3149,113 @@
         <v>59</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>334</v>
+        <v>125</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1.1100000000000001</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B85" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>395</v>
+        <v>231</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>225</v>
+        <v>431</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B94" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>365</v>
+        <v>182</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B95" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>387</v>
+        <v>432</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2772,106 +3263,91 @@
         <v>59</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>15</v>
+        <v>433</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B99" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>387</v>
+        <v>435</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>396</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>82</v>
+        <v>11</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1.2</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>387</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2879,19 +3355,19 @@
         <v>59</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>385</v>
+        <v>325</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -2899,652 +3375,757 @@
         <v>59</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>345</v>
+        <v>437</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B108" s="2" t="s">
-        <v>145</v>
+        <v>95</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B117" s="2" t="s">
-        <v>247</v>
+        <v>14</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B119" s="2" t="s">
-        <v>285</v>
+        <v>15</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B120" s="2" t="s">
-        <v>16</v>
+        <v>186</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B123" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B125" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B128" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>387</v>
+        <v>446</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="B130" s="2" t="s">
-        <v>197</v>
+        <v>82</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B132" s="2" t="s">
-        <v>190</v>
+        <v>55</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B133" s="2" t="s">
-        <v>221</v>
+        <v>56</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B134" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>370</v>
+        <v>144</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B136" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>395</v>
+        <v>123</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B140" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>395</v>
+        <v>151</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B142" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>387</v>
+        <v>451</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B143" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>387</v>
+        <v>453</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B144" s="2" t="s">
-        <v>188</v>
+        <v>159</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B145" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B146" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>395</v>
+        <v>187</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B147" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>387</v>
+        <v>455</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B148" s="2" t="s">
-        <v>156</v>
+        <v>260</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B150" s="2" t="s">
-        <v>21</v>
+        <v>91</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B151" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>395</v>
+        <v>200</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B152" s="2" t="s">
-        <v>22</v>
+        <v>108</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B153" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>387</v>
+        <v>460</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B156" s="2" t="s">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="B159" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>387</v>
+        <v>185</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B160" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>387</v>
+        <v>463</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>313</v>
+        <v>465</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B162" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>395</v>
+        <v>146</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>236</v>
+        <v>350</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B165" s="2" t="s">
-        <v>178</v>
+        <v>466</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B166" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B168" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>387</v>
+        <v>469</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B169" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>387</v>
+        <v>471</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B170" s="2" t="s">
-        <v>286</v>
+        <v>19</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -3552,270 +4133,336 @@
         <v>59</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B179" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B181" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B182" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C182" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>379</v>
+        <v>230</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
-        <v>318</v>
+        <v>178</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B186" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>387</v>
+        <v>477</v>
+      </c>
+      <c r="C186" s="3">
+        <v>0.1</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B187" s="2" t="s">
-        <v>132</v>
+        <v>212</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>387</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B189" s="2" t="s">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B190" s="2" t="s">
-        <v>297</v>
+        <v>124</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B195" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>387</v>
+        <v>238</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B196" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="B197" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B198" s="2" t="s">
-        <v>31</v>
+        <v>211</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>387</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B199" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B201" s="2" t="s">
-        <v>237</v>
+        <v>64</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>486</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>387</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B202" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>387</v>
+        <v>484</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -3823,27 +4470,24 @@
         <v>59</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B204" s="2" t="s">
-        <v>87</v>
+        <v>165</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -3851,159 +4495,177 @@
         <v>59</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>395</v>
+        <v>480</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B206" s="2" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B207" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>395</v>
+        <v>134</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B210" s="2" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B211" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>100</v>
+        <v>489</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B212" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>387</v>
+        <v>491</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="B213" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>387</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B214" s="2" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B215" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B216" s="2" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B217" s="2" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B218" s="2" t="s">
-        <v>279</v>
+        <v>24</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>387</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B219" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>387</v>
+        <v>495</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B220" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>387</v>
+        <v>497</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B221" s="2" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -4011,393 +4673,432 @@
         <v>59</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>291</v>
+        <v>58</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>303</v>
+        <v>499</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B223" s="2" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B224" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>387</v>
+        <v>500</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B226" s="2" t="s">
-        <v>185</v>
+        <v>26</v>
+      </c>
+      <c r="C226" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B228" s="2" t="s">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B229" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>387</v>
+        <v>209</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B231" s="2" t="s">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B232" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C232" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="B236" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B240" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
-        <v>118</v>
+        <v>273</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>502</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B243" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>387</v>
+        <v>503</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B244" s="2" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B246" s="2" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B248" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B249" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B250" s="2" t="s">
-        <v>204</v>
+        <v>259</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B251" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B252" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>395</v>
+        <v>300</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B253" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>506</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B254" s="2" t="s">
-        <v>133</v>
+        <v>33</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B256" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>387</v>
+        <v>508</v>
+      </c>
+      <c r="C256" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B258" s="2" t="s">
-        <v>109</v>
+        <v>205</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B259" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>387</v>
+        <v>100</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B260" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>395</v>
+        <v>117</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B261" s="2" t="s">
-        <v>282</v>
+        <v>149</v>
+      </c>
+      <c r="C261" s="3">
+        <v>1.2</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B262" s="2" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -4405,80 +5106,62 @@
         <v>59</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>395</v>
+        <v>510</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B264" s="2" t="s">
-        <v>240</v>
+        <v>157</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>511</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B265" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D265" s="6"/>
-      <c r="E265" s="6"/>
-      <c r="F265" s="6"/>
+        <v>142</v>
+      </c>
       <c r="G265" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B266" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B267" s="2" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B268" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>387</v>
+        <v>512</v>
+      </c>
+      <c r="C268" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -4486,21 +5169,21 @@
         <v>59</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>401</v>
+        <v>36</v>
+      </c>
+      <c r="C269" s="3">
+        <v>9</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B270" s="2" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -4508,13 +5191,19 @@
         <v>59</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>402</v>
+        <v>278</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -4522,156 +5211,764 @@
         <v>59</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B273" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>404</v>
+        <v>244</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B275" s="2" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B276" s="2" t="s">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B277" s="2" t="s">
-        <v>323</v>
+        <v>96</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B278" s="2" t="s">
-        <v>324</v>
+        <v>76</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B279" s="2" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B280" s="2" t="s">
-        <v>325</v>
+        <v>161</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B281" s="2" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B282" s="2" t="s">
-        <v>327</v>
+        <v>72</v>
+      </c>
+      <c r="C282" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B283" s="2" t="s">
-        <v>329</v>
+        <v>201</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B284" s="2" t="s">
-        <v>330</v>
+        <v>136</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B285" s="2" t="s">
-        <v>331</v>
+        <v>189</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B286" s="2" t="s">
-        <v>332</v>
+        <v>84</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B287" s="2" t="s">
-        <v>333</v>
+        <v>219</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B288" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B289" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B290" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B291" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B293" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B294" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B295" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B296" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B298" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B300" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B303" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B306" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B307" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B308" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B309" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B311" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B312" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B314" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F316" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E317" s="11"/>
+      <c r="G317" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C318" s="3">
+        <v>2</v>
+      </c>
+      <c r="E318" s="11"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B319" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C321" s="3">
+        <v>2</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D322" s="6"/>
+      <c r="E322" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F322" s="6"/>
+      <c r="G322" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C325" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B327" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B329" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E333" s="2"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B334" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B335" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G287">
-    <sortState ref="A2:F273">
-      <sortCondition ref="B1:B266"/>
+  <autoFilter ref="A1:G335">
+    <sortState ref="A2:G301">
+      <sortCondition ref="B1:B301"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E12" r:id="rId2"/>
-    <hyperlink ref="E13" r:id="rId3"/>
-    <hyperlink ref="E42" r:id="rId4" display="http://www.mod-buildcraft.com/"/>
-    <hyperlink ref="E86" r:id="rId5"/>
-    <hyperlink ref="E66" r:id="rId6"/>
-    <hyperlink ref="E134" r:id="rId7"/>
-    <hyperlink ref="E16" r:id="rId8"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="E15" r:id="rId3"/>
+    <hyperlink ref="E50" r:id="rId4" display="http://www.mod-buildcraft.com/"/>
+    <hyperlink ref="E108" r:id="rId5"/>
+    <hyperlink ref="E83" r:id="rId6"/>
+    <hyperlink ref="E166" r:id="rId7"/>
+    <hyperlink ref="E19" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -4693,10 +5990,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4704,23 +6001,23 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\remlie's minecraft\RemTModPack_V2-master\instances\RemTModPack_V3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12840"/>
   </bookViews>
@@ -14,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mod List'!$A$1:$G$335</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="545">
   <si>
     <t>Mod Name</t>
   </si>
@@ -963,9 +967,6 @@
     <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1282347-bspkrs-mods-armorstatushud-directionhud</t>
   </si>
   <si>
-    <t>need to pm aroma for permission</t>
-  </si>
-  <si>
     <t>http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1287828-aroma1997s-mods-betterchests-mining-world-mod</t>
   </si>
   <si>
@@ -1645,6 +1646,18 @@
   </si>
   <si>
     <t>Wireless Redstone: ChickenBones Edition (WR-CBE)</t>
+  </si>
+  <si>
+    <t>See link</t>
+  </si>
+  <si>
+    <t>post: http://www.minecraftforum.net/forums/mapping-and-modding/minecraft-mods/1284592-factorization-0-8-88-7?page=127</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/reikasminecraft/home</t>
+  </si>
+  <si>
+    <t>v3d</t>
   </si>
 </sst>
 </file>
@@ -1759,8 +1772,71 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12125325" y="152400"/>
+          <a:ext cx="6619875" cy="7391400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1806,7 +1882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1841,7 +1917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2050,13 +2126,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D333" sqref="D333"/>
+      <selection pane="bottomRight" activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2153,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>279</v>
@@ -2088,12 +2165,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>249</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,18 +2178,18 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>127</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2123,7 +2200,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>280</v>
@@ -2132,7 +2209,7 @@
         <v>312</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2143,10 +2220,10 @@
         <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2154,13 +2231,13 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>160</v>
       </c>
@@ -2168,35 +2245,35 @@
         <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>289</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,13 +2284,13 @@
         <v>237</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>216</v>
       </c>
@@ -2221,12 +2298,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>227</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2237,16 +2314,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>281</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2257,16 +2334,16 @@
         <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>282</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2274,19 +2351,19 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>390</v>
-      </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>288</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,7 +2374,7 @@
         <v>247</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>285</v>
@@ -2320,10 +2397,10 @@
         <v>313</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2334,16 +2411,16 @@
         <v>77</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>315</v>
+        <v>396</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>314</v>
+        <v>541</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2357,16 +2434,16 @@
         <v>311</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>359</v>
+        <v>541</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>103</v>
       </c>
@@ -2382,27 +2459,27 @@
         <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>359</v>
+        <v>541</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -2410,27 +2487,27 @@
         <v>275</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>206</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,10 +2515,10 @@
         <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2452,10 +2529,10 @@
         <v>232</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2463,50 +2540,50 @@
         <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>243</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>264</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2514,26 +2591,26 @@
         <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>217</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2544,16 +2621,16 @@
         <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2564,16 +2641,16 @@
         <v>50</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2587,13 +2664,13 @@
         <v>1.8</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2601,7 +2678,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C41" s="3">
         <v>1.6</v>
@@ -2612,7 +2689,7 @@
         <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C42" s="3">
         <v>1.4</v>
@@ -2626,10 +2703,10 @@
         <v>114</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2640,24 +2717,24 @@
         <v>310</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>253</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2668,16 +2745,16 @@
         <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2688,18 +2765,18 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2716,10 +2793,10 @@
         <v>313</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2730,43 +2807,43 @@
         <v>52</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>128</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -2774,19 +2851,19 @@
         <v>106</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2797,18 +2874,18 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2816,34 +2893,34 @@
         <v>59</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C57" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>255</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2851,10 +2928,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2865,10 +2942,10 @@
         <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2876,7 +2953,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2887,16 +2964,16 @@
         <v>61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2904,10 +2981,10 @@
         <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,10 +2992,10 @@
         <v>59</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2929,19 +3006,19 @@
         <v>53</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>265</v>
       </c>
@@ -2949,16 +3026,16 @@
         <v>75</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>265</v>
       </c>
@@ -2966,10 +3043,10 @@
         <v>54</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>209</v>
@@ -2986,21 +3063,21 @@
         <v>1.65</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>262</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,10 +3096,10 @@
         <v>59</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,34 +3107,34 @@
         <v>59</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3068,32 +3145,32 @@
         <v>68</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>235</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>170</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3107,21 +3184,21 @@
         <v>242</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3132,16 +3209,16 @@
         <v>154</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3155,61 +3232,61 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>305</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>231</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3217,34 +3294,34 @@
         <v>59</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C91" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>256</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3252,7 +3329,7 @@
         <v>59</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C95" s="3">
         <v>1.5</v>
@@ -3263,26 +3340,26 @@
         <v>59</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3290,42 +3367,42 @@
         <v>59</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C99" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>173</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>198</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3342,12 +3419,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>250</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3358,16 +3435,16 @@
         <v>12</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3378,16 +3455,16 @@
         <v>194</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3398,16 +3475,16 @@
         <v>95</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3418,29 +3495,29 @@
         <v>13</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>183</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>115</v>
       </c>
@@ -3448,7 +3525,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
         <v>131</v>
       </c>
@@ -3456,7 +3533,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>137</v>
       </c>
@@ -3469,18 +3546,18 @@
         <v>59</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C115" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>268</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3491,24 +3568,24 @@
         <v>14</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3519,16 +3596,16 @@
         <v>15</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3539,26 +3616,26 @@
         <v>186</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
         <v>180</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3569,19 +3646,19 @@
         <v>89</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>330</v>
+        <v>442</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
         <v>221</v>
       </c>
@@ -3594,26 +3671,26 @@
         <v>59</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>297</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3621,21 +3698,21 @@
         <v>59</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>148</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>265</v>
       </c>
@@ -3643,24 +3720,24 @@
         <v>82</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3671,16 +3748,16 @@
         <v>55</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="G132" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3691,80 +3768,80 @@
         <v>56</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
         <v>202</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>208</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>104</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3772,10 +3849,10 @@
         <v>59</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3783,7 +3860,7 @@
         <v>59</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C143" s="3">
         <v>2</v>
@@ -3797,10 +3874,10 @@
         <v>159</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3811,18 +3888,18 @@
         <v>224</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3830,10 +3907,10 @@
         <v>59</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3844,18 +3921,18 @@
         <v>260</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -3866,13 +3943,13 @@
         <v>91</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>200</v>
       </c>
@@ -3888,10 +3965,10 @@
         <v>108</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,26 +3976,26 @@
         <v>59</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>291</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
         <v>197</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -3929,34 +4006,34 @@
         <v>17</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
         <v>263</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
         <v>274</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -3964,10 +4041,10 @@
         <v>59</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -3975,37 +4052,37 @@
         <v>59</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>299</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4013,13 +4090,13 @@
         <v>59</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C165" s="3" t="s">
-        <v>467</v>
-      </c>
       <c r="G165" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4030,24 +4107,24 @@
         <v>73</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E166" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="G166" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4055,10 +4132,10 @@
         <v>59</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4066,10 +4143,10 @@
         <v>59</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4080,24 +4157,24 @@
         <v>19</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4108,24 +4185,24 @@
         <v>20</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
         <v>245</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4139,61 +4216,61 @@
         <v>277</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
         <v>121</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>307</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4204,40 +4281,40 @@
         <v>63</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>230</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
         <v>155</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4248,10 +4325,10 @@
         <v>21</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4259,7 +4336,7 @@
         <v>59</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C186" s="3">
         <v>0.1</v>
@@ -4273,32 +4350,32 @@
         <v>212</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="2" t="s">
         <v>290</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -4309,45 +4386,45 @@
         <v>124</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
         <v>293</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>160</v>
       </c>
@@ -4355,16 +4432,16 @@
         <v>191</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>238</v>
@@ -4378,13 +4455,13 @@
         <v>93</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>265</v>
       </c>
@@ -4392,10 +4469,10 @@
         <v>287</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -4406,13 +4483,13 @@
         <v>211</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>214</v>
@@ -4426,18 +4503,18 @@
         <v>223</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
         <v>304</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -4448,7 +4525,7 @@
         <v>64</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>209</v>
@@ -4459,10 +4536,10 @@
         <v>59</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -4470,10 +4547,10 @@
         <v>59</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -4484,10 +4561,10 @@
         <v>165</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -4498,50 +4575,50 @@
         <v>85</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="2" t="s">
         <v>267</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
         <v>135</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>261</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -4549,10 +4626,10 @@
         <v>59</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -4560,13 +4637,13 @@
         <v>59</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>265</v>
       </c>
@@ -4574,18 +4651,18 @@
         <v>81</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -4596,32 +4673,32 @@
         <v>23</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="2" t="s">
         <v>218</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="2" t="s">
         <v>234</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -4632,7 +4709,7 @@
         <v>24</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>209</v>
@@ -4643,10 +4720,10 @@
         <v>59</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -4654,18 +4731,18 @@
         <v>59</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C220" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="2" t="s">
         <v>233</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -4676,24 +4753,24 @@
         <v>58</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="2" t="s">
         <v>295</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -4701,18 +4778,18 @@
         <v>59</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C224" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -4726,29 +4803,29 @@
         <v>0.6</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="2" t="s">
         <v>292</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -4759,112 +4836,112 @@
         <v>66</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
         <v>220</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
         <v>272</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
         <v>169</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
         <v>139</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
         <v>273</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -4875,10 +4952,10 @@
         <v>31</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -4886,42 +4963,42 @@
         <v>59</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244" s="2" t="s">
         <v>196</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
         <v>176</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246" s="2" t="s">
         <v>215</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -4932,24 +5009,24 @@
         <v>80</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -4960,32 +5037,32 @@
         <v>259</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251" s="2" t="s">
         <v>306</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252" s="2" t="s">
         <v>300</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -4996,10 +5073,10 @@
         <v>32</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -5010,24 +5087,24 @@
         <v>33</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
         <v>236</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -5035,18 +5112,21 @@
         <v>59</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C256" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
         <v>167</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -5057,13 +5137,13 @@
         <v>205</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B259" s="2" t="s">
         <v>98</v>
       </c>
@@ -5071,12 +5151,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B260" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -5090,15 +5170,15 @@
         <v>1.2</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B262" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -5109,10 +5189,10 @@
         <v>34</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,34 +5203,34 @@
         <v>157</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B265" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B266" s="2" t="s">
         <v>254</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -5158,7 +5238,7 @@
         <v>59</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C268" s="3">
         <v>2</v>
@@ -5175,15 +5255,15 @@
         <v>9</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -5197,13 +5277,13 @@
         <v>278</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -5214,42 +5294,42 @@
         <v>37</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
         <v>130</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275" s="2" t="s">
         <v>172</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -5263,7 +5343,7 @@
         <v>277</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -5274,34 +5354,34 @@
         <v>76</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B279" s="2" t="s">
         <v>303</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B280" s="2" t="s">
         <v>161</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281" s="2" t="s">
         <v>246</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -5318,10 +5398,10 @@
         <v>313</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -5332,10 +5412,10 @@
         <v>201</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -5346,18 +5426,18 @@
         <v>136</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B285" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -5368,16 +5448,16 @@
         <v>84</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -5388,42 +5468,42 @@
         <v>219</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289" s="2" t="s">
         <v>252</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B290" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -5434,40 +5514,43 @@
         <v>119</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>381</v>
+        <v>517</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296" s="2" t="s">
         <v>152</v>
       </c>
@@ -5480,18 +5563,18 @@
         <v>59</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C297" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298" s="2" t="s">
         <v>203</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -5499,15 +5582,15 @@
         <v>59</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -5518,7 +5601,7 @@
         <v>88</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>209</v>
@@ -5532,18 +5615,18 @@
         <v>296</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="2" t="s">
         <v>190</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -5554,16 +5637,16 @@
         <v>116</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -5574,19 +5657,19 @@
         <v>39</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306" s="2" t="s">
         <v>40</v>
       </c>
@@ -5594,7 +5677,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="2" t="s">
         <v>133</v>
       </c>
@@ -5602,20 +5685,20 @@
         <v>209</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308" s="2" t="s">
         <v>228</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="2" t="s">
         <v>166</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -5623,26 +5706,26 @@
         <v>59</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B311" s="2" t="s">
         <v>298</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B312" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -5650,18 +5733,18 @@
         <v>59</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C313" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -5669,13 +5752,13 @@
         <v>59</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -5686,16 +5769,16 @@
         <v>45</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F316" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -5706,11 +5789,11 @@
         <v>257</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E317" s="11"/>
       <c r="G317" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -5718,19 +5801,19 @@
         <v>59</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C318" s="3">
         <v>2</v>
       </c>
       <c r="E318" s="11"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B319" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -5741,16 +5824,16 @@
         <v>179</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -5758,13 +5841,13 @@
         <v>59</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C321" s="3">
         <v>2</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -5779,11 +5862,11 @@
       </c>
       <c r="D322" s="6"/>
       <c r="E322" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F322" s="6"/>
       <c r="G322" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -5794,16 +5877,16 @@
         <v>47</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -5817,7 +5900,7 @@
         <v>308</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -5825,7 +5908,7 @@
         <v>59</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C325" s="3">
         <v>1.4</v>
@@ -5836,18 +5919,18 @@
         <v>59</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C326" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B327" s="2" t="s">
         <v>258</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -5858,21 +5941,21 @@
         <v>83</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B329" s="2" t="s">
         <v>192</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -5883,10 +5966,10 @@
         <v>67</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -5897,16 +5980,16 @@
         <v>276</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E331" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F331" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F331" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="G331" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -5917,13 +6000,13 @@
         <v>65</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -5931,31 +6014,36 @@
         <v>59</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E333" s="2"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B334" s="2" t="s">
         <v>271</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335" s="2" t="s">
         <v>229</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G335">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="X"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:G301">
       <sortCondition ref="B1:B301"/>
     </sortState>
@@ -5969,9 +6057,13 @@
     <hyperlink ref="E83" r:id="rId6"/>
     <hyperlink ref="E166" r:id="rId7"/>
     <hyperlink ref="E19" r:id="rId8"/>
+    <hyperlink ref="E20" r:id="rId9"/>
+    <hyperlink ref="E123" r:id="rId10"/>
+    <hyperlink ref="E292" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -5990,10 +6082,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>354</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6001,7 +6093,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6009,7 +6101,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6017,7 +6109,7 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/Mod List.xlsx
+++ b/Mod List.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\remlie's minecraft\RemTModPack_V2-master\instances\RemTModPack_V3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12840"/>
   </bookViews>
@@ -16,14 +11,14 @@
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mod List'!$A$1:$G$335</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mod List'!$A$1:$G$336</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="552">
   <si>
     <t>Mod Name</t>
   </si>
@@ -1658,6 +1653,27 @@
   </si>
   <si>
     <t>v3d</t>
+  </si>
+  <si>
+    <t>Forge Team</t>
+  </si>
+  <si>
+    <t>Additional Pipes BC</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>tcooc</t>
+  </si>
+  <si>
+    <t>https://github.com/tcooc/AdditionalPipesBC/</t>
+  </si>
+  <si>
+    <t>http://minecraft.curseforge.com/mc-mods/221584-admin-commands-toolbox</t>
+  </si>
+  <si>
+    <t>ProfMobius</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1807,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1882,7 +1898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1917,7 +1933,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2126,14 +2142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G335"/>
+  <dimension ref="A1:G336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M107" sqref="M107"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,7 +2180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>249</v>
       </c>
@@ -2178,35 +2193,50 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>349</v>
@@ -2217,10 +2247,16 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>349</v>
@@ -2231,96 +2267,90 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>349</v>
@@ -2331,13 +2361,13 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>357</v>
@@ -2351,36 +2381,39 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2388,19 +2421,16 @@
         <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1.27</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>357</v>
+        <v>247</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2408,16 +2438,16 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>396</v>
+        <v>71</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>541</v>
+        <v>357</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>349</v>
@@ -2428,12 +2458,12 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E21" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>314</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2443,82 +2473,91 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="G25" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>399</v>
+      <c r="G27" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2526,13 +2565,10 @@
         <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>232</v>
+        <v>398</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2540,94 +2576,88 @@
         <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="G37" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>349</v>
@@ -2638,16 +2668,16 @@
         <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>349</v>
@@ -2658,10 +2688,10 @@
         <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1.8</v>
+        <v>50</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>315</v>
@@ -2678,10 +2708,19 @@
         <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="C41" s="3">
-        <v>1.6</v>
+        <v>1.8</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2689,10 +2728,10 @@
         <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C42" s="3">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2700,13 +2739,10 @@
         <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>349</v>
+        <v>408</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.4</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2714,44 +2750,38 @@
         <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="G45" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>349</v>
@@ -2762,38 +2792,38 @@
         <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="G48" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="3">
-        <v>6.14</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>349</v>
@@ -2804,13 +2834,13 @@
         <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>318</v>
+        <v>70</v>
+      </c>
+      <c r="C50" s="3">
+        <v>6.14</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>357</v>
@@ -2819,119 +2849,128 @@
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="G52" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="G53" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
+      <c r="G56" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="G57" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C58" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="G59" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+      <c r="G60" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>417</v>
+      <c r="G61" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2939,13 +2978,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2953,7 +2989,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>418</v>
+        <v>8</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,19 +3003,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2981,10 +3011,19 @@
         <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>420</v>
+        <v>61</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2992,10 +3031,10 @@
         <v>59</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,92 +3042,92 @@
         <v>59</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="G68" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>209</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C71" s="3">
         <v>1.65</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="G71" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>240</v>
+      <c r="G72" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3096,10 +3135,10 @@
         <v>59</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>425</v>
+        <v>301</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>426</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3107,115 +3146,106 @@
         <v>59</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+      <c r="G76" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
+      <c r="G77" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="G78" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
+      <c r="G79" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
+      <c r="G80" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="G81" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
+      <c r="G82" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>349</v>
@@ -3226,113 +3256,122 @@
         <v>59</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C85" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+      <c r="G85" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+      <c r="G86" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+      <c r="G87" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+      <c r="G88" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="G89" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
+      <c r="G90" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91" s="2" t="s">
+      <c r="G91" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C92" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
+      <c r="G93" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
+      <c r="G94" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C95" s="3">
-        <v>1.5</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3340,108 +3379,99 @@
         <v>59</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
+      <c r="G98" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99" s="2" t="s">
+      <c r="G99" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C100" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
+      <c r="G101" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
+      <c r="G102" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
+      <c r="G103" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="2" t="s">
+      <c r="G104" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C105" s="3">
         <v>1.2</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="2" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>349</v>
@@ -3452,13 +3482,13 @@
         <v>59</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>357</v>
@@ -3472,13 +3502,13 @@
         <v>59</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>320</v>
+        <v>436</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>357</v>
@@ -3492,117 +3522,117 @@
         <v>59</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="G110" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
+      <c r="G111" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="G112" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C116" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="2" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B117" s="2" t="s">
+      <c r="G117" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E118" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F118" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="2" t="s">
+      <c r="G118" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>349</v>
@@ -3613,148 +3643,148 @@
         <v>59</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="2" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="2" t="s">
+      <c r="G122" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B123" s="2" t="s">
+      <c r="G123" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B125" s="2" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="2" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
+      <c r="G127" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G127" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B128" s="2" t="s">
+      <c r="G128" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C129" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="2" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="G130" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E131" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F131" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>349</v>
@@ -3765,94 +3795,106 @@
         <v>59</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E134" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="2" t="s">
+      <c r="G134" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="2" t="s">
+      <c r="G135" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="2" t="s">
+      <c r="G136" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="2" t="s">
+      <c r="G137" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="2" t="s">
+      <c r="G138" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="2" t="s">
+      <c r="G139" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="2" t="s">
+      <c r="G140" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="2" t="s">
+      <c r="G141" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G141" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>451</v>
+      <c r="G142" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3860,10 +3902,10 @@
         <v>59</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C143" s="3">
-        <v>2</v>
+        <v>450</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3871,13 +3913,10 @@
         <v>59</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>349</v>
+        <v>452</v>
+      </c>
+      <c r="C144" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3885,32 +3924,35 @@
         <v>59</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="2" t="s">
+      <c r="G146" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G146" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>455</v>
+      <c r="G147" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3918,57 +3960,54 @@
         <v>59</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="2" t="s">
+      <c r="G149" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B150" s="2" t="s">
+      <c r="G150" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C151" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="G150" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="2" t="s">
+      <c r="G151" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -3976,75 +4015,78 @@
         <v>59</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="2" t="s">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="2" t="s">
+      <c r="G155" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G155" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B156" s="2" t="s">
+      <c r="G156" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G156" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="2" t="s">
+      <c r="G157" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="2" t="s">
+      <c r="G158" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G158" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="2" t="s">
+      <c r="G159" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G159" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>463</v>
+      <c r="G160" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4052,48 +4094,45 @@
         <v>59</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="G161" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="2" t="s">
+      <c r="G162" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G162" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="2" t="s">
+      <c r="G163" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G163" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="2" t="s">
+      <c r="G164" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>349</v>
@@ -4104,38 +4143,41 @@
         <v>59</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E167" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F167" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G166" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="2" t="s">
+      <c r="G167" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>469</v>
+      <c r="G168" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4143,10 +4185,10 @@
         <v>59</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4154,178 +4196,175 @@
         <v>59</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E171" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F171" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G170" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="2" t="s">
+      <c r="G171" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G171" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B172" s="2" t="s">
+      <c r="G172" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E173" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F173" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G172" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="2" t="s">
+      <c r="G173" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G173" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B174" s="2" t="s">
+      <c r="G174" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E175" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="F175" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G174" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="2" t="s">
+      <c r="G175" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G175" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="2" t="s">
+      <c r="G176" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G176" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="2" t="s">
+      <c r="G177" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G177" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="2" t="s">
+      <c r="G178" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G178" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="2" t="s">
+      <c r="G179" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G179" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="2" t="s">
+      <c r="G180" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G180" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B181" s="2" t="s">
+      <c r="G181" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E182" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="F182" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G181" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="2" t="s">
+      <c r="G182" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G182" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="2" t="s">
+      <c r="G183" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G183" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="2" t="s">
+      <c r="G184" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>349</v>
@@ -4336,10 +4375,13 @@
         <v>59</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C186" s="3">
-        <v>0.1</v>
+        <v>21</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -4347,129 +4389,126 @@
         <v>59</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C187" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E188" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F188" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G187" s="2" t="s">
+      <c r="G188" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="2" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G188" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="2" t="s">
+      <c r="G189" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G189" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B190" s="2" t="s">
+      <c r="G190" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="G190" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="2" t="s">
+      <c r="G191" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G191" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="2" t="s">
+      <c r="G192" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G192" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="2" t="s">
+      <c r="G193" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G193" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="2" t="s">
+      <c r="G194" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G194" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="G195" s="2" t="s">
-        <v>238</v>
+        <v>349</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C197" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>349</v>
@@ -4477,22 +4516,16 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>481</v>
+        <v>287</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>214</v>
+        <v>349</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -4500,35 +4533,41 @@
         <v>59</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C200" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="G199" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="2" t="s">
+      <c r="G200" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G200" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>485</v>
-      </c>
       <c r="G201" s="2" t="s">
-        <v>209</v>
+        <v>349</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -4536,10 +4575,13 @@
         <v>59</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>483</v>
+        <v>64</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>402</v>
+        <v>485</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -4547,7 +4589,7 @@
         <v>59</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>402</v>
@@ -4558,13 +4600,10 @@
         <v>59</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>165</v>
+        <v>484</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -4572,64 +4611,67 @@
         <v>59</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C206" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G205" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="2" t="s">
+      <c r="G206" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G206" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="2" t="s">
+      <c r="G207" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G207" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="2" t="s">
+      <c r="G208" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G208" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="2" t="s">
+      <c r="G209" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G209" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="2" t="s">
+      <c r="G210" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G210" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>489</v>
+      <c r="G211" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -4637,82 +4679,79 @@
         <v>59</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C213" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E214" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="G213" s="2" t="s">
+      <c r="G214" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="2" t="s">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G214" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B215" s="2" t="s">
+      <c r="G215" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C216" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E216" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="F216" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G215" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="2" t="s">
+      <c r="G216" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G216" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="2" t="s">
+      <c r="G217" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G217" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>493</v>
-      </c>
       <c r="G218" s="2" t="s">
-        <v>209</v>
+        <v>349</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -4720,10 +4759,13 @@
         <v>59</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>494</v>
+        <v>24</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -4731,228 +4773,225 @@
         <v>59</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C221" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="2" t="s">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G221" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B222" s="2" t="s">
+      <c r="G222" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C223" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="E222" s="3" t="s">
+      <c r="E223" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F222" s="3" t="s">
+      <c r="F223" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G222" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="2" t="s">
+      <c r="G223" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B224" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G223" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B224" s="2" t="s">
+      <c r="G224" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C225" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="2" t="s">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G225" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B226" s="2" t="s">
+      <c r="G226" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C227" s="3">
         <v>0.6</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="E227" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="F227" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G226" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="2" t="s">
+      <c r="G227" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B228" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G227" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="2" t="s">
+      <c r="G228" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B229" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G228" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B229" s="2" t="s">
+      <c r="G229" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C230" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E230" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="F230" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G229" s="2" t="s">
+      <c r="G230" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="2" t="s">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B231" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G230" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="2" t="s">
+      <c r="G231" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B232" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G231" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="2" t="s">
+      <c r="G232" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G232" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="2" t="s">
+      <c r="G233" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B234" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G233" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="2" t="s">
+      <c r="G234" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B235" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G234" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="2" t="s">
+      <c r="G235" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B236" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G235" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="2" t="s">
+      <c r="G236" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B237" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G236" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="2" t="s">
+      <c r="G237" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G237" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="2" t="s">
+      <c r="G238" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B239" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G238" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="2" t="s">
+      <c r="G239" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B240" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G239" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="2" t="s">
+      <c r="G240" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B241" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G240" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="2" t="s">
+      <c r="G241" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B242" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>349</v>
@@ -4963,117 +5002,117 @@
         <v>59</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C244" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="2" t="s">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B245" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G244" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="2" t="s">
+      <c r="G245" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B246" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G245" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="2" t="s">
+      <c r="G246" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B247" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G246" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="2" t="s">
+      <c r="G247" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B248" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G247" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B248" s="2" t="s">
+      <c r="G248" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C249" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E249" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="F249" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G248" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="2" t="s">
+      <c r="G249" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B250" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G249" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B250" s="2" t="s">
+      <c r="G250" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C251" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E251" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F250" s="3" t="s">
+      <c r="F251" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G250" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="2" t="s">
+      <c r="G251" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B252" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G251" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="2" t="s">
+      <c r="G252" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>349</v>
@@ -5084,112 +5123,112 @@
         <v>59</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C255" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="E255" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F254" s="3" t="s">
+      <c r="F255" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G254" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="2" t="s">
+      <c r="G255" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B256" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G255" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B256" s="2" t="s">
+      <c r="G256" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C257" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="E257" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="2" t="s">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G257" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B258" s="2" t="s">
+      <c r="G258" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C259" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="G258" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="2" t="s">
+      <c r="G259" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B260" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G259" s="2" t="s">
+      <c r="G260" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="2" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B261" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G260" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B261" s="2" t="s">
+      <c r="G261" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C262" s="3">
         <v>1.2</v>
       </c>
-      <c r="G261" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="2" t="s">
+      <c r="G262" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B263" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>349</v>
@@ -5200,48 +5239,51 @@
         <v>59</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="G264" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="2" t="s">
+      <c r="G265" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B266" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G265" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="2" t="s">
+      <c r="G266" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B267" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G266" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="2" t="s">
+      <c r="G267" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B268" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G267" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C268" s="3">
-        <v>2</v>
+      <c r="G268" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -5249,38 +5291,29 @@
         <v>59</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C269" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C270" s="3">
         <v>9</v>
       </c>
-      <c r="G269" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="2" t="s">
+      <c r="G270" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B271" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>349</v>
@@ -5291,56 +5324,62 @@
         <v>59</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C273" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G272" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="2" t="s">
+      <c r="G273" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B274" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G273" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="2" t="s">
+      <c r="G274" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G274" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="2" t="s">
+      <c r="G275" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B276" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G275" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="2" t="s">
+      <c r="G276" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B277" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>349</v>
@@ -5351,54 +5390,48 @@
         <v>59</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C279" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="G278" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="2" t="s">
+      <c r="G279" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B280" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G279" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="2" t="s">
+      <c r="G280" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B281" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G280" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="2" t="s">
+      <c r="G281" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B282" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C282" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>349</v>
@@ -5409,10 +5442,16 @@
         <v>59</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>513</v>
+        <v>72</v>
+      </c>
+      <c r="C283" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>349</v>
@@ -5423,38 +5462,32 @@
         <v>59</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C285" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="G284" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="2" t="s">
+      <c r="G285" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B286" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>349</v>
@@ -5465,146 +5498,152 @@
         <v>59</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C288" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G287" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="2" t="s">
+      <c r="G288" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B289" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G288" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="2" t="s">
+      <c r="G289" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B290" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G289" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="2" t="s">
+      <c r="G290" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B291" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G290" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="2" t="s">
+      <c r="G291" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B292" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G291" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B292" s="2" t="s">
+      <c r="G292" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C293" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E292" s="4" t="s">
+      <c r="E293" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F292" s="3" t="s">
+      <c r="F293" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G292" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="2" t="s">
+      <c r="G293" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B294" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G293" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="2" t="s">
+      <c r="G294" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B295" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G294" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="2" t="s">
+      <c r="G295" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B296" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G295" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="2" t="s">
+      <c r="G296" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B297" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G296" s="2" t="s">
+      <c r="G297" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B297" s="2" t="s">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="2" t="s">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B299" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G298" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B299" s="2" t="s">
+      <c r="G299" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="2" t="s">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B301" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G300" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="G301" s="2" t="s">
-        <v>209</v>
+        <v>349</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -5612,38 +5651,32 @@
         <v>59</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="G302" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="2" t="s">
+      <c r="G303" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B304" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E304" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>349</v>
@@ -5654,10 +5687,10 @@
         <v>59</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>336</v>
@@ -5669,93 +5702,99 @@
         <v>349</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B306" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B307" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G306" s="2" t="s">
+      <c r="G307" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="2" t="s">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B308" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G307" s="2" t="s">
+      <c r="G308" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="2" t="s">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B309" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G308" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="2" t="s">
+      <c r="G309" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B310" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G309" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B310" s="2" t="s">
+      <c r="G310" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C311" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="2" t="s">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B312" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G311" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="2" t="s">
+      <c r="G312" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B313" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G312" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B313" s="2" t="s">
+      <c r="G313" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C314" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="2" t="s">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B315" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>349</v>
@@ -5766,16 +5805,10 @@
         <v>59</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E316" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="F316" s="11" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>349</v>
@@ -5786,12 +5819,17 @@
         <v>59</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E317" s="11"/>
+        <v>529</v>
+      </c>
+      <c r="E317" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F317" s="11" t="s">
+        <v>357</v>
+      </c>
       <c r="G317" s="2" t="s">
         <v>349</v>
       </c>
@@ -5801,36 +5839,31 @@
         <v>59</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E318" s="11"/>
+      <c r="G318" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C318" s="3">
+      <c r="C319" s="3">
         <v>2</v>
       </c>
-      <c r="E318" s="11"/>
-    </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="2" t="s">
+      <c r="E319" s="11"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B320" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F320" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>349</v>
@@ -5841,10 +5874,16 @@
         <v>59</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C321" s="3">
-        <v>2</v>
+        <v>179</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>349</v>
@@ -5855,16 +5894,11 @@
         <v>59</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D322" s="6"/>
-      <c r="E322" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F322" s="6"/>
+        <v>533</v>
+      </c>
+      <c r="C322" s="3">
+        <v>2</v>
+      </c>
       <c r="G322" s="2" t="s">
         <v>349</v>
       </c>
@@ -5874,17 +5908,16 @@
         <v>59</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E323" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F323" s="3" t="s">
-        <v>357</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D323" s="6"/>
+      <c r="E323" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F323" s="6"/>
       <c r="G323" s="2" t="s">
         <v>349</v>
       </c>
@@ -5894,10 +5927,16 @@
         <v>59</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>308</v>
+        <v>534</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>349</v>
@@ -5908,10 +5947,13 @@
         <v>59</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C325" s="3">
-        <v>1.4</v>
+        <v>129</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -5919,54 +5961,51 @@
         <v>59</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C326" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C327" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="2" t="s">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B328" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G327" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B328" s="2" t="s">
+      <c r="G328" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C329" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E328" s="3" t="s">
+      <c r="E329" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="G328" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="2" t="s">
+      <c r="G329" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B330" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="G329" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>349</v>
@@ -5977,16 +6016,10 @@
         <v>59</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>349</v>
@@ -5997,14 +6030,17 @@
         <v>59</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>486</v>
+        <v>364</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="F332" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="G332" s="2" t="s">
         <v>349</v>
       </c>
@@ -6014,56 +6050,69 @@
         <v>59</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C334" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="E333" s="2"/>
-    </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="2" t="s">
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B335" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G334" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="2" t="s">
+      <c r="G335" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B336" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G335" s="2" t="s">
+      <c r="G336" s="2" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G335">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="X"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:G336">
     <sortState ref="A2:G301">
       <sortCondition ref="B1:B301"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
-    <hyperlink ref="E15" r:id="rId3"/>
-    <hyperlink ref="E50" r:id="rId4" display="http://www.mod-buildcraft.com/"/>
-    <hyperlink ref="E108" r:id="rId5"/>
-    <hyperlink ref="E83" r:id="rId6"/>
-    <hyperlink ref="E166" r:id="rId7"/>
-    <hyperlink ref="E19" r:id="rId8"/>
-    <hyperlink ref="E20" r:id="rId9"/>
-    <hyperlink ref="E123" r:id="rId10"/>
-    <hyperlink ref="E292" r:id="rId11"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E15" r:id="rId2"/>
+    <hyperlink ref="E16" r:id="rId3"/>
+    <hyperlink ref="E51" r:id="rId4" display="http://www.mod-buildcraft.com/"/>
+    <hyperlink ref="E109" r:id="rId5"/>
+    <hyperlink ref="E84" r:id="rId6"/>
+    <hyperlink ref="E167" r:id="rId7"/>
+    <hyperlink ref="E20" r:id="rId8"/>
+    <hyperlink ref="E21" r:id="rId9"/>
+    <hyperlink ref="E124" r:id="rId10"/>
+    <hyperlink ref="E293" r:id="rId11"/>
+    <hyperlink ref="F133" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
